--- a/Code/Results/Cases/Case_0_86/load/p_mw.xlsx
+++ b/Code/Results/Cases/Case_0_86/load/p_mw.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>256.5101652550508</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>95.76379502855229</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>95.76379502855229</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>95.76379502855229</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/Code/Results/Cases/Case_0_86/load/p_mw.xlsx
+++ b/Code/Results/Cases/Case_0_86/load/p_mw.xlsx
@@ -391,16 +391,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>256.5101652550508</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>95.76379502855229</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>95.76379502855229</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>95.76379502855229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
